--- a/src/test/resources/examplefiles/formats-and-styles.xlsx
+++ b/src/test/resources/examplefiles/formats-and-styles.xlsx
@@ -13,76 +13,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
-    <t>Rad 1, Kol 1</t>
-  </si>
-  <si>
-    <t>Rad 1, Kol 3</t>
-  </si>
-  <si>
-    <t>Rad 1, Kol 4</t>
-  </si>
-  <si>
-    <t>Rad 1, Kol 5</t>
-  </si>
-  <si>
-    <t>Rad 1, Kol 6</t>
-  </si>
-  <si>
-    <t>Rad 2, Kol 1</t>
-  </si>
-  <si>
-    <t>Rad 2, Kol 3</t>
-  </si>
-  <si>
-    <t>Rad 2, Kol 4</t>
+    <t>Row 1, Col 1</t>
+  </si>
+  <si>
+    <t>Row 1, Col 3</t>
+  </si>
+  <si>
+    <t>Row 1, Col 4</t>
+  </si>
+  <si>
+    <t>Row 1, Col 5</t>
+  </si>
+  <si>
+    <t>Row 1, Col 6</t>
+  </si>
+  <si>
+    <t>Row 2, Col 1</t>
+  </si>
+  <si>
+    <t>Row 2, Col 3</t>
+  </si>
+  <si>
+    <t>Row 2, Col 4</t>
   </si>
   <si>
     <t>Bold</t>
   </si>
   <si>
-    <t>Rad 2, Kol 6</t>
-  </si>
-  <si>
-    <t>Rad 3, Kol 1</t>
+    <t>Row 2, Col 6</t>
+  </si>
+  <si>
+    <t>Row 3, Col 1</t>
   </si>
   <si>
     <t>Blue background</t>
   </si>
   <si>
-    <t>Rad 3, Kol 3</t>
-  </si>
-  <si>
-    <t>Rad 3, Kol 4</t>
-  </si>
-  <si>
-    <t>Rad 3, Kol 5</t>
+    <t>Row 3, Col 3</t>
+  </si>
+  <si>
+    <t>Row 3, Col 4</t>
+  </si>
+  <si>
+    <t>Row 3, Col 5</t>
   </si>
   <si>
     <t>Italic</t>
   </si>
   <si>
-    <t>Rad 4, Kol 1</t>
+    <t>Row 4, Col 1</t>
   </si>
   <si>
     <t>Pink</t>
   </si>
   <si>
-    <t>Rad 4, Kol 4</t>
-  </si>
-  <si>
-    <t>Rad 4, Kol 5</t>
-  </si>
-  <si>
-    <t>Rad 4, Kol 6</t>
-  </si>
-  <si>
-    <t>Rad 5, Kol 1</t>
-  </si>
-  <si>
-    <t>Rad 5, Kol 3</t>
-  </si>
-  <si>
-    <t>Rad 5, Kol 4</t>
+    <t>Row 4, Col 4</t>
+  </si>
+  <si>
+    <t>Row 4, Col 5</t>
+  </si>
+  <si>
+    <t>Row 4, Col 6</t>
+  </si>
+  <si>
+    <t>Row 5, Col 1</t>
+  </si>
+  <si>
+    <t>Row 5, Col 3</t>
+  </si>
+  <si>
+    <t>Row 5, Col 4</t>
   </si>
   <si>
     <t>bordered</t>
@@ -91,25 +91,25 @@
     <t>larger font size</t>
   </si>
   <si>
-    <t>Rad 6, Kol 3</t>
-  </si>
-  <si>
-    <t>Rad 6, Kol 4</t>
-  </si>
-  <si>
-    <t>Rad 7, Kol 1</t>
+    <t>Row 6, Col 3</t>
+  </si>
+  <si>
+    <t>Row 6, Col 4</t>
+  </si>
+  <si>
+    <t>Row 7, Col 1</t>
   </si>
   <si>
     <t>strikethrough</t>
   </si>
   <si>
-    <t>Rad 7, Kol 4</t>
-  </si>
-  <si>
-    <t>Rad 7, Kol 5</t>
-  </si>
-  <si>
-    <t>Rad 7, Kol 6</t>
+    <t>Row 7, Col 4</t>
+  </si>
+  <si>
+    <t>Row 7, Col 5</t>
+  </si>
+  <si>
+    <t>Row 7, Col 6</t>
   </si>
 </sst>
 </file>
